--- a/exposan/bwaise/results/sysC_report.xlsx
+++ b/exposan/bwaise/results/sysC_report.xlsx
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.91436718049375</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K3">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-11.51829734820635</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O3">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-6.289457302583426</v>
+        <v>-4.528113322508353</v>
       </c>
       <c r="R3">
-        <v>-40.67971049008342</v>
+        <v>-38.91836651000835</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.422173005618751</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K4">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-15.02610317333135</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O4">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-5.989959335793738</v>
+        <v>-4.312488878579384</v>
       </c>
       <c r="R4">
-        <v>-46.66966982587716</v>
+        <v>-43.23085538858773</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.01485528249375</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K5">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-12.61878545020635</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O5">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-5.704723176946417</v>
+        <v>-4.107132265313698</v>
       </c>
       <c r="R5">
-        <v>-52.37439300282358</v>
+        <v>-47.33798765390144</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.29534262311875</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K6">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-10.89927279083135</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O6">
-        <v>-6.603930167712596</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-5.43306969232992</v>
+        <v>-3.911554538393998</v>
       </c>
       <c r="R6">
-        <v>-57.8074626951535</v>
+        <v>-51.24954219229543</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.071049609643751</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K7">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-9.674979777356347</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O7">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-5.174352087933258</v>
+        <v>-3.725290036565712</v>
       </c>
       <c r="R7">
-        <v>-62.98181478308676</v>
+        <v>-54.97483222886115</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.067610584325</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K8">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-9.671540752037599</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O8">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-4.927954369460244</v>
+        <v>-3.547895272919726</v>
       </c>
       <c r="R8">
-        <v>-67.909769152547</v>
+        <v>-58.52272750178087</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.071049609643751</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K9">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-9.674979777356347</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O9">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-4.693289875676424</v>
+        <v>-3.378947878971168</v>
       </c>
       <c r="R9">
-        <v>-72.60305902822343</v>
+        <v>-61.90167538075203</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1570,7 +1570,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>1.5338052921625</v>
+        <v>4.2987816484375</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.177693206126192</v>
+        <v>5.307375045358165</v>
       </c>
       <c r="K10">
-        <v>0.5737630384135953</v>
+        <v>0.5528560567243939</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-8.137735459875097</v>
+        <v>-9.053300637071271</v>
       </c>
       <c r="O10">
-        <v>-6.603930167712597</v>
+        <v>-4.75451898863377</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-4.469799881596594</v>
+        <v>-3.218045599020159</v>
       </c>
       <c r="R10">
-        <v>-77.07285890982001</v>
+        <v>-65.1197209797722</v>
       </c>
     </row>
   </sheetData>
@@ -2267,25 +2267,25 @@
         <v>0.9939598748202108</v>
       </c>
       <c r="G7">
-        <v>0.07050323077830421</v>
+        <v>0.217967709139475</v>
       </c>
       <c r="H7">
-        <v>10.36615722763462</v>
+        <v>11.62381134201204</v>
       </c>
       <c r="I7">
-        <v>0.04941379251340255</v>
+        <v>0.05540882597631416</v>
       </c>
       <c r="J7">
-        <v>24.78163939882012</v>
+        <v>26.03929351319754</v>
       </c>
       <c r="K7">
-        <v>0.1199170232917068</v>
+        <v>0.2733765351157892</v>
       </c>
       <c r="L7">
         <v>30.41695816694304</v>
       </c>
       <c r="M7">
-        <v>99.26410856070689</v>
+        <v>93.69229730444673</v>
       </c>
       <c r="N7">
         <v>3.610942069701285</v>
@@ -2297,13 +2297,13 @@
         <v>10.905142199952</v>
       </c>
       <c r="Q7">
-        <v>8.834627801783148</v>
+        <v>8.071623542867124</v>
       </c>
       <c r="R7">
         <v>7.437287781173251</v>
       </c>
       <c r="S7">
-        <v>13163.8044049307</v>
+        <v>7206.591606544994</v>
       </c>
       <c r="T7">
         <v>13.35498580967109</v>
@@ -2318,13 +2318,13 @@
         <v>0.0063308</v>
       </c>
       <c r="X7">
-        <v>13190.98146271361</v>
+        <v>7233.005660068986</v>
       </c>
       <c r="Y7">
-        <v>-2278.753222729129</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>25045.94921944927</v>
+        <v>25040.08415496899</v>
       </c>
       <c r="AA7">
         <v>0.01041666666666667</v>
@@ -2336,19 +2336,19 @@
         <v>26625.37641075773</v>
       </c>
       <c r="AD7">
-        <v>25040.48807971211</v>
+        <v>25034.91626845585</v>
       </c>
       <c r="AE7">
         <v>532.5075282151539</v>
       </c>
       <c r="AF7">
-        <v>227.4185154030153</v>
+        <v>152.9049827971173</v>
       </c>
       <c r="AG7">
-        <v>5.46113973715579</v>
+        <v>5.167886513142093</v>
       </c>
       <c r="AH7">
-        <v>11370.92577015072</v>
+        <v>7645.249139855849</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>26092.86888254258</v>
       </c>
       <c r="AL7">
-        <v>11143.50725474771</v>
+        <v>7492.344157058732</v>
       </c>
       <c r="AM7">
         <v>0.05833333333333333</v>
@@ -2369,7 +2369,7 @@
         <v>26092.86888254258</v>
       </c>
       <c r="AO7">
-        <v>11143.50725474771</v>
+        <v>7492.344157058732</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>83.35777680680707</v>
+        <v>82.36807616774904</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.3477581117149113</v>
+        <v>0.3244168633124911</v>
       </c>
       <c r="AA9">
         <v>0.06574463999999999</v>
@@ -2466,19 +2466,19 @@
         <v>0.344551709667977</v>
       </c>
       <c r="AD9">
-        <v>0.3304422573549614</v>
+        <v>0.3082596401741453</v>
       </c>
       <c r="AE9">
         <v>0.344551709667977</v>
       </c>
       <c r="AF9">
-        <v>0.02570194289644581</v>
+        <v>0.03822699293088688</v>
       </c>
       <c r="AG9">
-        <v>79.74463597226557</v>
+        <v>78.59523944631658</v>
       </c>
       <c r="AH9">
-        <v>0.02570194289644593</v>
+        <v>0.03822699293088698</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0.3445517096679769</v>
       </c>
       <c r="AL9">
-        <v>0.02570194289644592</v>
+        <v>0.03822699293088699</v>
       </c>
       <c r="AM9">
         <v>0.3659002285714285</v>
@@ -2499,7 +2499,7 @@
         <v>0.3445517096679769</v>
       </c>
       <c r="AO9">
-        <v>0.02570194289644592</v>
+        <v>0.03822699293088699</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.64222319319292</v>
+        <v>17.63192383225095</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.06697475716083458</v>
+        <v>0.1115943208426874</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.06730386697103855</v>
+        <v>0.06731963135573926</v>
       </c>
       <c r="AA10">
         <v>0.26297856</v>
@@ -2591,19 +2591,19 @@
         <v>0.06460344556274571</v>
       </c>
       <c r="AD10">
-        <v>0.06597217452318961</v>
+        <v>0.06598685739652804</v>
       </c>
       <c r="AE10">
         <v>0.06460344556274587</v>
       </c>
       <c r="AF10">
-        <v>0.1100152563130674</v>
+        <v>0.1636278020814877</v>
       </c>
       <c r="AG10">
-        <v>6.173397186526233</v>
+        <v>6.523708406298974</v>
       </c>
       <c r="AH10">
-        <v>0.1100152563130678</v>
+        <v>0.1636278020814881</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0.06460344556274569</v>
       </c>
       <c r="AL10">
-        <v>0.1100152563130678</v>
+        <v>0.1636278020814881</v>
       </c>
       <c r="AM10">
         <v>0.06457062857142859</v>
@@ -2624,7 +2624,7 @@
         <v>0.06460344556274569</v>
       </c>
       <c r="AO10">
-        <v>0.1100152563130678</v>
+        <v>0.1636278020814881</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2698,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0563816104373728</v>
+        <v>0.1028243047317388</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01471149978272747</v>
+        <v>0.01471494561359183</v>
       </c>
       <c r="AA11">
         <v>0.15953652</v>
@@ -2716,19 +2716,19 @@
         <v>0.03530308205651655</v>
       </c>
       <c r="AD11">
-        <v>0.01442041408380887</v>
+        <v>0.01442362351437578</v>
       </c>
       <c r="AE11">
         <v>0.03530308205651645</v>
       </c>
       <c r="AF11">
-        <v>0.06674099644889221</v>
+        <v>0.09926516488389507</v>
       </c>
       <c r="AG11">
-        <v>1.349401385916672</v>
+        <v>1.425973560228607</v>
       </c>
       <c r="AH11">
-        <v>0.06674099644889255</v>
+        <v>0.09926516488389536</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>0.03530308205651655</v>
       </c>
       <c r="AL11">
-        <v>0.06674099644889253</v>
+        <v>0.09926516488389538</v>
       </c>
       <c r="AM11">
         <v>0.04455919285714285</v>
@@ -2749,7 +2749,7 @@
         <v>0.03530308205651655</v>
       </c>
       <c r="AO11">
-        <v>0.06674099644889253</v>
+        <v>0.09926516488389538</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0.08267119645931655</v>
+        <v>0.15076916447274</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.1239230829037451</v>
+        <v>0.1239521090390938</v>
       </c>
       <c r="AA12">
         <v>0.23392512</v>
@@ -2841,19 +2841,19 @@
         <v>0.1189509384919103</v>
       </c>
       <c r="AD12">
-        <v>0.121471107392619</v>
+        <v>0.1214981421977776</v>
       </c>
       <c r="AE12">
         <v>0.1189509384919097</v>
       </c>
       <c r="AF12">
-        <v>0.09786095123064434</v>
+        <v>0.1455504708720297</v>
       </c>
       <c r="AG12">
-        <v>11.36675269599046</v>
+        <v>12.01176238538453</v>
       </c>
       <c r="AH12">
-        <v>0.09786095123064462</v>
+        <v>0.1455504708720299</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0.1189509384919102</v>
       </c>
       <c r="AL12">
-        <v>0.0978609512306446</v>
+        <v>0.1455504708720299</v>
       </c>
       <c r="AM12">
         <v>0.1188905142857143</v>
@@ -2874,7 +2874,7 @@
         <v>0.1189509384919102</v>
       </c>
       <c r="AO12">
-        <v>0.0978609512306446</v>
+        <v>0.1455504708720299</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03541384249516182</v>
+        <v>0.06468812460663789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0.03534088021812987</v>
+        <v>0.06445189147396396</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.01489042053862582</v>
+        <v>0.01489390827756699</v>
       </c>
       <c r="AA13">
         <v>0.1</v>
@@ -2966,19 +2966,19 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AD13">
-        <v>0.01459579466541833</v>
+        <v>0.01459904312896975</v>
       </c>
       <c r="AE13">
         <v>0.01429297477197634</v>
       </c>
       <c r="AF13">
-        <v>0.04183430630735339</v>
+        <v>0.06222096663754162</v>
       </c>
       <c r="AG13">
-        <v>1.365812759301049</v>
+        <v>1.443316201771296</v>
       </c>
       <c r="AH13">
-        <v>0.04183430630735366</v>
+        <v>0.06222096663754189</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AL13">
-        <v>0.04183430630735365</v>
+        <v>0.0622209666375419</v>
       </c>
       <c r="AM13">
         <v>0.01428571428571429</v>
@@ -2999,7 +2999,7 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AO13">
-        <v>0.04183430630735365</v>
+        <v>0.0622209666375419</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2691452029632298</v>
+        <v>0.4916297470104479</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.2685906896577869</v>
+        <v>0.489834375202126</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.3179407279358864</v>
+        <v>0.4728793464453172</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.3179407279358878</v>
+        <v>0.4728793464453184</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.3179407279358877</v>
+        <v>0.4728793464453184</v>
       </c>
       <c r="AM14">
         <v>0.02</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.3179407279358877</v>
+        <v>0.4728793464453184</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>74.22700215849414</v>
+        <v>53.30093987678187</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>74.07407407407406</v>
+        <v>53.10629135237148</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>99.02129658186171</v>
+        <v>99.04449004582048</v>
       </c>
       <c r="AA15">
         <v>85</v>
@@ -3216,19 +3216,19 @@
         <v>95.04828223364247</v>
       </c>
       <c r="AD15">
-        <v>99.04289237248155</v>
+        <v>99.06493551800902</v>
       </c>
       <c r="AE15">
         <v>95.04828223364244</v>
       </c>
       <c r="AF15">
-        <v>67.23506330438836</v>
+        <v>51.2680808415731</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>67.23506330438838</v>
+        <v>51.26808084157318</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>95.04828223364245</v>
       </c>
       <c r="AL15">
-        <v>67.23506330438835</v>
+        <v>51.26808084157319</v>
       </c>
       <c r="AM15">
         <v>94.99999999999999</v>
@@ -3249,7 +3249,7 @@
         <v>95.04828223364245</v>
       </c>
       <c r="AO15">
-        <v>67.23506330438835</v>
+        <v>51.26808084157319</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>2.988129348397647</v>
+        <v>5.079447328322908</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>2.981972978290254</v>
+        <v>5.060897806877995</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.4101164362272316</v>
+        <v>0.410212496581023</v>
       </c>
       <c r="AA16">
         <v>13.41781515999999</v>
@@ -3341,19 +3341,19 @@
         <v>4.374015615806416</v>
       </c>
       <c r="AD16">
-        <v>0.4102058794984496</v>
+        <v>0.4102971755791819</v>
       </c>
       <c r="AE16">
         <v>4.374015615806415</v>
       </c>
       <c r="AF16">
-        <v>5.548894753499665</v>
+        <v>8.252977658961324</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>5.548894753499686</v>
+        <v>8.252977658961338</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>4.374015615806415</v>
       </c>
       <c r="AL16">
-        <v>5.548894753499684</v>
+        <v>8.252977658961338</v>
       </c>
       <c r="AM16">
         <v>4.371793721428576</v>
@@ -3374,7 +3374,7 @@
         <v>4.374015615806415</v>
       </c>
       <c r="AO16">
-        <v>5.548894753499684</v>
+        <v>8.252977658961338</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.9573058570862547</v>
+        <v>1.748647314346649</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0.9553335431483198</v>
+        <v>1.742261467863667</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4222,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.130863629402576</v>
+        <v>1.681955179075094</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.130863629402582</v>
+        <v>1.6819551790751</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1.130863629402582</v>
+        <v>1.681955179075101</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1.130863629402582</v>
+        <v>1.681955179075101</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>21.52300359056356</v>
+        <v>39.3146476089315</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>100</v>
       </c>
       <c r="X24">
-        <v>21.47866027055391</v>
+        <v>39.17107531616362</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>25.4250841315771</v>
+        <v>37.81521557653933</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>25.42508413157708</v>
+        <v>37.81521557653922</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>25.42508413157707</v>
+        <v>37.81521557653922</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>25.42508413157707</v>
+        <v>37.81521557653922</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -4974,7 +4974,7 @@
         <v>356.6336095706205</v>
       </c>
       <c r="E31">
-        <v>268.1233231484932</v>
+        <v>54.61668379141244</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5042,7 +5042,7 @@
         <v>121</v>
       </c>
       <c r="D39">
-        <v>0.002303491082937486</v>
+        <v>0.001616139599996895</v>
       </c>
     </row>
     <row r="40" spans="1:4">

--- a/exposan/bwaise/results/sysC_report.xlsx
+++ b/exposan/bwaise/results/sysC_report.xlsx
@@ -1196,7 +1196,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K3">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O3">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-4.528113322508353</v>
+        <v>-4.526309973018978</v>
       </c>
       <c r="R3">
-        <v>-38.91836651000835</v>
+        <v>-38.91656316051898</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1252,7 +1252,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K4">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O4">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-4.312488878579384</v>
+        <v>-4.310771402875217</v>
       </c>
       <c r="R4">
-        <v>-43.23085538858773</v>
+        <v>-43.22733456339419</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1308,7 +1308,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K5">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O5">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-4.107132265313698</v>
+        <v>-4.105496574166874</v>
       </c>
       <c r="R5">
-        <v>-47.33798765390144</v>
+        <v>-47.33283113756106</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1364,7 +1364,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K6">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O6">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-3.911554538393998</v>
+        <v>-3.909996737301784</v>
       </c>
       <c r="R6">
-        <v>-51.24954219229543</v>
+        <v>-51.24282787486284</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1420,7 +1420,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K7">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O7">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-3.725290036565712</v>
+        <v>-3.723806416477889</v>
       </c>
       <c r="R7">
-        <v>-54.97483222886115</v>
+        <v>-54.96663429134073</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1476,7 +1476,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K8">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O8">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-3.547895272919726</v>
+        <v>-3.546482301407513</v>
       </c>
       <c r="R8">
-        <v>-58.52272750178087</v>
+        <v>-58.51311659274825</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1532,7 +1532,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K9">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O9">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-3.378947878971168</v>
+        <v>-3.377602191816679</v>
       </c>
       <c r="R9">
-        <v>-61.90167538075203</v>
+        <v>-61.89071878456492</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1588,7 +1588,7 @@
         <v>5.307375045358165</v>
       </c>
       <c r="K10">
-        <v>0.5528560567243939</v>
+        <v>0.5547495736882381</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-9.053300637071271</v>
+        <v>-9.051407120107427</v>
       </c>
       <c r="O10">
-        <v>-4.75451898863377</v>
+        <v>-4.752625471669927</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-3.218045599020159</v>
+        <v>-3.216763992206361</v>
       </c>
       <c r="R10">
-        <v>-65.1197209797722</v>
+        <v>-65.10748277677129</v>
       </c>
     </row>
   </sheetData>
@@ -2270,16 +2270,16 @@
         <v>0.217967709139475</v>
       </c>
       <c r="H7">
-        <v>11.62381134201204</v>
+        <v>10.67812724254448</v>
       </c>
       <c r="I7">
-        <v>0.05540882597631416</v>
+        <v>0.05090090304516866</v>
       </c>
       <c r="J7">
-        <v>26.03929351319754</v>
+        <v>25.09360941372998</v>
       </c>
       <c r="K7">
-        <v>0.2733765351157892</v>
+        <v>0.2688686121846437</v>
       </c>
       <c r="L7">
         <v>30.41695816694304</v>
@@ -2297,13 +2297,13 @@
         <v>10.905142199952</v>
       </c>
       <c r="Q7">
-        <v>8.071623542867124</v>
+        <v>8.64535918864928</v>
       </c>
       <c r="R7">
         <v>7.437287781173251</v>
       </c>
       <c r="S7">
-        <v>7206.591606544994</v>
+        <v>7227.116999727689</v>
       </c>
       <c r="T7">
         <v>13.35498580967109</v>
@@ -2318,7 +2318,7 @@
         <v>0.0063308</v>
       </c>
       <c r="X7">
-        <v>7233.005660068986</v>
+        <v>7254.104788897464</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.1115943208426874</v>
+        <v>0.1191788572158643</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.1028243047317388</v>
+        <v>0.1025252322320482</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0.15076916447274</v>
+        <v>0.1503306406138841</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06468812460663789</v>
+        <v>0.06450440692338294</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0.06445189147396396</v>
+        <v>0.06426442812720758</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.4916297470104479</v>
+        <v>0.4902334926177103</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.489834375202126</v>
+        <v>0.4884096537667775</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>53.30093987678187</v>
+        <v>53.14956239831854</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>53.10629135237148</v>
+        <v>52.95182756732094</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>5.079447328322908</v>
+        <v>5.349026700675425</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>5.060897806877995</v>
+        <v>5.329126463628634</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1.748647314346649</v>
+        <v>1.743681063811866</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1.742261467863667</v>
+        <v>1.737193964672975</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>39.3146476089315</v>
+        <v>39.20299193765305</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>100</v>
       </c>
       <c r="X24">
-        <v>39.17107531616362</v>
+        <v>39.05714319242167</v>
       </c>
       <c r="Y24">
         <v>0</v>

--- a/exposan/bwaise/results/sysC_report.xlsx
+++ b/exposan/bwaise/results/sysC_report.xlsx
@@ -572,8 +572,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>143</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -593,7 +593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="87649050" cy="20916900"/>
+          <a:ext cx="70751700" cy="20916900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K3">
         <v>0.5547495736882381</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K4">
         <v>0.5547495736882381</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K5">
         <v>0.5547495736882381</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K6">
         <v>0.5547495736882381</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K7">
         <v>0.5547495736882381</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K8">
         <v>0.5547495736882381</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K9">
         <v>0.5547495736882381</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.307375045358165</v>
+        <v>5.307375045358164</v>
       </c>
       <c r="K10">
         <v>0.5547495736882381</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9939598748202108</v>
+        <v>0.9939598748202105</v>
       </c>
       <c r="G7">
         <v>0.217967709139475</v>
@@ -2279,7 +2279,7 @@
         <v>25.09360941372998</v>
       </c>
       <c r="K7">
-        <v>0.2688686121846437</v>
+        <v>0.2688686121846436</v>
       </c>
       <c r="L7">
         <v>30.41695816694304</v>
@@ -2309,7 +2309,7 @@
         <v>13.35498580967109</v>
       </c>
       <c r="U7">
-        <v>25293.95457086856</v>
+        <v>25293.95457086857</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>7492.344157058732</v>
       </c>
       <c r="AM7">
-        <v>0.05833333333333333</v>
+        <v>0.05833333333333334</v>
       </c>
       <c r="AN7">
         <v>26092.86888254258</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.344551709667977</v>
+        <v>0.3445517096679769</v>
       </c>
       <c r="AD9">
         <v>0.3082596401741453</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.3445517096679769</v>
+        <v>0.3445517096679768</v>
       </c>
       <c r="AL9">
         <v>0.03822699293088699</v>
@@ -2496,7 +2496,7 @@
         <v>0.3659002285714285</v>
       </c>
       <c r="AN9">
-        <v>0.3445517096679769</v>
+        <v>0.3445517096679768</v>
       </c>
       <c r="AO9">
         <v>0.03822699293088699</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.06664395753958674</v>
+        <v>0.06664395753958673</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.06460344556274571</v>
+        <v>0.06460344556274569</v>
       </c>
       <c r="AD10">
         <v>0.06598685739652804</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.06460344556274569</v>
+        <v>0.06460344556274568</v>
       </c>
       <c r="AL10">
         <v>0.1636278020814881</v>
@@ -2621,7 +2621,7 @@
         <v>0.06457062857142859</v>
       </c>
       <c r="AN10">
-        <v>0.06460344556274569</v>
+        <v>0.06460344556274568</v>
       </c>
       <c r="AO10">
         <v>0.1636278020814881</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.03530308205651655</v>
+        <v>0.03530308205651654</v>
       </c>
       <c r="AD11">
         <v>0.01442362351437578</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.03530308205651655</v>
+        <v>0.03530308205651653</v>
       </c>
       <c r="AL11">
         <v>0.09926516488389538</v>
@@ -2746,7 +2746,7 @@
         <v>0.04455919285714285</v>
       </c>
       <c r="AN11">
-        <v>0.03530308205651655</v>
+        <v>0.03530308205651653</v>
       </c>
       <c r="AO11">
         <v>0.09926516488389538</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.1189509384919103</v>
+        <v>0.1189509384919102</v>
       </c>
       <c r="AD12">
         <v>0.1214981421977776</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>98.05040010191537</v>
+        <v>98.05040010191536</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>95.04828223364247</v>
+        <v>95.04828223364245</v>
       </c>
       <c r="AD15">
         <v>99.06493551800902</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>95.04828223364245</v>
+        <v>95.04828223364244</v>
       </c>
       <c r="AL15">
         <v>51.26808084157319</v>
@@ -3246,7 +3246,7 @@
         <v>94.99999999999999</v>
       </c>
       <c r="AN15">
-        <v>95.04828223364245</v>
+        <v>95.04828223364244</v>
       </c>
       <c r="AO15">
         <v>51.26808084157319</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4124011151862868</v>
+        <v>0.412401115186288</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1.353650916470885</v>
+        <v>1.353650916470889</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.410212496581023</v>
+        <v>0.4102124965810243</v>
       </c>
       <c r="AA16">
         <v>13.41781515999999</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>4.374015615806416</v>
+        <v>4.374015615806426</v>
       </c>
       <c r="AD16">
-        <v>0.4102971755791819</v>
+        <v>0.4102971755791831</v>
       </c>
       <c r="AE16">
         <v>4.374015615806415</v>
@@ -3362,16 +3362,16 @@
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>4.374015615806415</v>
+        <v>4.374015615806425</v>
       </c>
       <c r="AL16">
         <v>8.252977658961338</v>
       </c>
       <c r="AM16">
-        <v>4.371793721428576</v>
+        <v>4.371793721428588</v>
       </c>
       <c r="AN16">
-        <v>4.374015615806415</v>
+        <v>4.374015615806425</v>
       </c>
       <c r="AO16">
         <v>8.252977658961338</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>124</v>
       </c>
       <c r="D31">
-        <v>356.6336095706205</v>
+        <v>356.6336095706204</v>
       </c>
       <c r="E31">
         <v>54.61668379141244</v>
